--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Test Case</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,14 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cancelOrder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,6 +59,22 @@
   </si>
   <si>
     <t>测试用订单取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replyTopic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试发帖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试一下发帖功能是否正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试回帖功能是否正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,16 +497,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -518,10 +524,18 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -549,15 +563,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -66,15 +66,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试发帖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试一下发帖功能是否正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试回帖功能是否正常</t>
+    <t>签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到一下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -527,7 +529,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -535,7 +537,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
